--- a/P0003/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0003/09_FICHAS/VARDATOS_v0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1880" documentId="13_ncr:1_{68045A9D-8804-4B14-BFA8-2C6CA3ABCE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77FE8DC-9C3E-46FE-BE9D-582BB5F5C562}"/>
+  <xr:revisionPtr revIDLastSave="1883" documentId="13_ncr:1_{68045A9D-8804-4B14-BFA8-2C6CA3ABCE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6EF0AE8-20D5-4B8A-8925-B28399C86B23}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{9B885552-EB3B-4C5A-92A4-AF080F845354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{9B885552-EB3B-4C5A-92A4-AF080F845354}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -3644,25 +3644,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3673,6 +3670,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4013,8 +4013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9842D-B2BA-4B06-84B6-38F00073DD59}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4025,7 +4025,7 @@
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.9">
+    <row r="6" spans="1:4" ht="29.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.9">
+    <row r="7" spans="1:4" ht="29.25">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.9">
+    <row r="8" spans="1:4" ht="29.25">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="100.9">
+    <row r="12" spans="1:4" ht="101.25">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
@@ -4203,51 +4203,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="80" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="79"/>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="82"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="88"/>
     </row>
-    <row r="16" spans="1:4" ht="43.15">
-      <c r="A16" s="79"/>
+    <row r="16" spans="1:4" ht="57.75">
+      <c r="A16" s="82"/>
       <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="88"/>
     </row>
-    <row r="17" spans="1:4" ht="72">
-      <c r="A17" s="79"/>
+    <row r="17" spans="1:4" ht="72.75">
+      <c r="A17" s="82"/>
       <c r="B17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="88"/>
     </row>
-    <row r="18" spans="1:4" ht="43.15">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:4" ht="43.5">
+      <c r="A18" s="79"/>
       <c r="B18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="85"/>
     </row>
-    <row r="19" spans="1:4" ht="28.9">
+    <row r="19" spans="1:4" ht="29.25">
       <c r="A19" s="78" t="s">
         <v>41</v>
       </c>
@@ -4261,45 +4261,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="79"/>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="82"/>
       <c r="B20" s="17"/>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="82"/>
       <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="90"/>
       <c r="D21" s="90"/>
     </row>
-    <row r="22" spans="1:4" ht="28.9">
-      <c r="A22" s="79"/>
+    <row r="22" spans="1:4" ht="29.25">
+      <c r="A22" s="82"/>
       <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="90"/>
       <c r="D22" s="90"/>
     </row>
-    <row r="23" spans="1:4" ht="28.9">
-      <c r="A23" s="79"/>
+    <row r="23" spans="1:4" ht="29.25">
+      <c r="A23" s="82"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
     </row>
-    <row r="24" spans="1:4" ht="86.45">
-      <c r="A24" s="80"/>
+    <row r="24" spans="1:4" ht="87">
+      <c r="A24" s="79"/>
       <c r="B24" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="29.25">
       <c r="A25" s="78" t="s">
         <v>47</v>
       </c>
@@ -4313,35 +4313,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="79"/>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="82"/>
       <c r="B26" s="17"/>
       <c r="C26" s="90"/>
       <c r="D26" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="79"/>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="82"/>
       <c r="B27" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="90"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="1:4" ht="28.9">
-      <c r="A28" s="80"/>
+    <row r="28" spans="1:4" ht="43.5">
+      <c r="A28" s="79"/>
       <c r="B28" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="91"/>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="29.25">
       <c r="A29" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="80" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -4351,41 +4351,41 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="80"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="86"/>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="79"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="29.25">
       <c r="A31" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="80"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="88"/>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="29.25">
       <c r="A33" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="89" t="s">
@@ -4395,15 +4395,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="80"/>
-      <c r="B34" s="83"/>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="79"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="91"/>
       <c r="D34" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="25" t="s">
         <v>61</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="27" t="s">
         <v>63</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="27" t="s">
         <v>65</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="27" t="s">
         <v>67</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="27" t="s">
         <v>69</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="27" t="s">
         <v>71</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="27" t="s">
         <v>73</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="29" t="s">
         <v>75</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="30" t="s">
         <v>76</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="30" t="s">
         <v>77</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="30" t="s">
         <v>78</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="30" t="s">
         <v>79</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="30" t="s">
         <v>80</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="30" t="s">
         <v>81</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="31" t="s">
         <v>82</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="32" t="s">
         <v>83</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="32" t="s">
         <v>84</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="32" t="s">
         <v>85</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="32" t="s">
         <v>86</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="32" t="s">
         <v>87</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="32" t="s">
         <v>88</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="33" t="s">
         <v>89</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="34" t="s">
         <v>90</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="34" t="s">
         <v>91</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="34" t="s">
         <v>92</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="34" t="s">
         <v>93</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="34" t="s">
         <v>94</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="34" t="s">
         <v>95</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="15" t="s">
         <v>96</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="35" t="s">
         <v>97</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="35" t="s">
         <v>98</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="35" t="s">
         <v>99</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="35" t="s">
         <v>100</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="35" t="s">
         <v>101</v>
       </c>
@@ -4743,7 +4743,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="35" t="s">
         <v>102</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" ht="15">
       <c r="A70" s="25" t="s">
         <v>103</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="15">
       <c r="A71" s="27" t="s">
         <v>104</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="15">
       <c r="A72" s="27" t="s">
         <v>105</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="27" t="s">
         <v>106</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="27" t="s">
         <v>107</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="27" t="s">
         <v>108</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="15">
       <c r="A76" s="27" t="s">
         <v>109</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="15">
       <c r="A77" s="29" t="s">
         <v>110</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="15">
       <c r="A78" s="30" t="s">
         <v>111</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="15">
       <c r="A79" s="30" t="s">
         <v>112</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="15">
       <c r="A80" s="30" t="s">
         <v>113</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="15">
       <c r="A81" s="30" t="s">
         <v>114</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="15">
       <c r="A82" s="30" t="s">
         <v>115</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="15">
       <c r="A83" s="30" t="s">
         <v>116</v>
       </c>
@@ -5049,6 +5049,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -5060,12 +5066,6 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5075,8 +5075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC88EE-A57C-4F0A-95C1-1B1BD4491B10}">
   <dimension ref="A1:CD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="BS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:CD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -29559,7 +29559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124B7ECF-07E8-4A6D-BFED-B4674F3FA9EC}">
   <dimension ref="A1:CX6"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="CX5" sqref="CX5"/>
     </sheetView>
   </sheetViews>

--- a/P0003/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0003/09_FICHAS/VARDATOS_v0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1938" documentId="13_ncr:1_{68045A9D-8804-4B14-BFA8-2C6CA3ABCE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9EE3901-F15E-49B2-9C2E-D41C5E44B8D1}"/>
+  <xr:revisionPtr revIDLastSave="1941" documentId="13_ncr:1_{68045A9D-8804-4B14-BFA8-2C6CA3ABCE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7BFB1D-1D3A-49E9-9702-9F881DF3F1F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" activeTab="1" xr2:uid="{9B885552-EB3B-4C5A-92A4-AF080F845354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20250" windowHeight="8280" firstSheet="1" activeTab="1" xr2:uid="{9B885552-EB3B-4C5A-92A4-AF080F845354}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1024">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -634,7 +634,7 @@
     <t>V0019</t>
   </si>
   <si>
-    <t>Espejo (mancha) de agua</t>
+    <t>Espejo de agua</t>
   </si>
   <si>
     <t>Área que se encuentra inundada por una capa de agua.</t>
@@ -3007,6 +3007,9 @@
   </si>
   <si>
     <t>Nutrientes</t>
+  </si>
+  <si>
+    <t>Espejo (mancha) de agua</t>
   </si>
   <si>
     <t xml:space="preserve">Mapa de actores </t>
@@ -3169,7 +3172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3280,6 +3283,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3454,7 +3462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3651,33 +3659,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3717,15 +3698,43 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4066,7 +4075,7 @@
       <selection activeCell="D25" sqref="D25:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.28515625" bestFit="1" customWidth="1"/>
@@ -4074,7 +4083,7 @@
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4123,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="135">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
@@ -4254,199 +4263,199 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="80" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="81"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="87"/>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+    <row r="16" spans="1:4" ht="60">
+      <c r="A16" s="81"/>
       <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="87"/>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
+    <row r="17" spans="1:4" ht="75">
+      <c r="A17" s="81"/>
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="87"/>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+    <row r="18" spans="1:4" ht="45">
+      <c r="A18" s="82"/>
       <c r="B18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="88"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="86" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="81"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="87"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="81"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="87"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="81"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="87"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="81"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="87"/>
     </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+    <row r="24" spans="1:4" ht="90">
+      <c r="A24" s="82"/>
       <c r="B24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="97"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="88"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="80" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="76" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="81"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="87"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="78"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="81"/>
       <c r="B27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="78"/>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+    <row r="28" spans="1:4" ht="45">
+      <c r="A28" s="82"/>
       <c r="B28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="86"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="77"/>
     </row>
-    <row r="29" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+    <row r="29" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A29" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="76" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="88"/>
+    <row r="30" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A30" s="90"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="79"/>
     </row>
-    <row r="31" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="s">
+    <row r="31" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A31" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="76" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="88"/>
+    <row r="32" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="79"/>
     </row>
-    <row r="33" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+    <row r="33" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A33" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="76" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="86"/>
+    <row r="34" spans="1:4" s="74" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A34" s="90"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="77"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="22" t="s">
         <v>62</v>
       </c>
@@ -4456,7 +4465,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="24" t="s">
         <v>64</v>
       </c>
@@ -4466,7 +4475,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="24" t="s">
         <v>66</v>
       </c>
@@ -4476,7 +4485,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="24" t="s">
         <v>68</v>
       </c>
@@ -4486,7 +4495,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="24" t="s">
         <v>70</v>
       </c>
@@ -4496,7 +4505,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="24" t="s">
         <v>72</v>
       </c>
@@ -4506,7 +4515,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="24" t="s">
         <v>74</v>
       </c>
@@ -4516,7 +4525,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="26" t="s">
         <v>76</v>
       </c>
@@ -4526,7 +4535,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="27" t="s">
         <v>77</v>
       </c>
@@ -4536,7 +4545,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="27" t="s">
         <v>78</v>
       </c>
@@ -4546,7 +4555,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="27" t="s">
         <v>79</v>
       </c>
@@ -4556,7 +4565,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="27" t="s">
         <v>80</v>
       </c>
@@ -4566,7 +4575,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="27" t="s">
         <v>81</v>
       </c>
@@ -4576,7 +4585,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="27" t="s">
         <v>82</v>
       </c>
@@ -4586,7 +4595,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="28" t="s">
         <v>83</v>
       </c>
@@ -4596,7 +4605,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="29" t="s">
         <v>84</v>
       </c>
@@ -4606,7 +4615,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="29" t="s">
         <v>85</v>
       </c>
@@ -4616,7 +4625,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="29" t="s">
         <v>86</v>
       </c>
@@ -4626,7 +4635,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="29" t="s">
         <v>87</v>
       </c>
@@ -4636,7 +4645,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="29" t="s">
         <v>88</v>
       </c>
@@ -4646,7 +4655,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="29" t="s">
         <v>89</v>
       </c>
@@ -4656,7 +4665,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
         <v>90</v>
       </c>
@@ -4666,7 +4675,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="31" t="s">
         <v>91</v>
       </c>
@@ -4676,7 +4685,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="31" t="s">
         <v>92</v>
       </c>
@@ -4686,7 +4695,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="31" t="s">
         <v>93</v>
       </c>
@@ -4696,7 +4705,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="31" t="s">
         <v>94</v>
       </c>
@@ -4706,7 +4715,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="31" t="s">
         <v>95</v>
       </c>
@@ -4716,7 +4725,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="31" t="s">
         <v>96</v>
       </c>
@@ -4726,7 +4735,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="15" t="s">
         <v>97</v>
       </c>
@@ -4736,7 +4745,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
         <v>98</v>
       </c>
@@ -4746,7 +4755,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="32" t="s">
         <v>99</v>
       </c>
@@ -4756,7 +4765,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
         <v>100</v>
       </c>
@@ -4766,7 +4775,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="32" t="s">
         <v>101</v>
       </c>
@@ -4776,7 +4785,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="32" t="s">
         <v>102</v>
       </c>
@@ -4786,7 +4795,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="32" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4805,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="22" t="s">
         <v>104</v>
       </c>
@@ -4806,7 +4815,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="24" t="s">
         <v>105</v>
       </c>
@@ -4816,7 +4825,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="24" t="s">
         <v>106</v>
       </c>
@@ -4826,7 +4835,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="24" t="s">
         <v>107</v>
       </c>
@@ -4836,7 +4845,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="24" t="s">
         <v>108</v>
       </c>
@@ -4846,7 +4855,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="24" t="s">
         <v>109</v>
       </c>
@@ -4856,7 +4865,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="24" t="s">
         <v>110</v>
       </c>
@@ -4866,7 +4875,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="26" t="s">
         <v>111</v>
       </c>
@@ -4876,7 +4885,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="27" t="s">
         <v>112</v>
       </c>
@@ -4886,7 +4895,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="27" t="s">
         <v>113</v>
       </c>
@@ -4896,7 +4905,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="27" t="s">
         <v>114</v>
       </c>
@@ -4906,7 +4915,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="27" t="s">
         <v>115</v>
       </c>
@@ -4916,7 +4925,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="27" t="s">
         <v>116</v>
       </c>
@@ -4926,7 +4935,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="27" t="s">
         <v>117</v>
       </c>
@@ -4936,7 +4945,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="28" t="s">
         <v>118</v>
       </c>
@@ -4946,7 +4955,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="29" t="s">
         <v>119</v>
       </c>
@@ -4956,7 +4965,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="29" t="s">
         <v>120</v>
       </c>
@@ -4966,7 +4975,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="29" t="s">
         <v>121</v>
       </c>
@@ -4976,7 +4985,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="29" t="s">
         <v>122</v>
       </c>
@@ -4986,7 +4995,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="29" t="s">
         <v>123</v>
       </c>
@@ -4996,7 +5005,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="29" t="s">
         <v>124</v>
       </c>
@@ -5006,7 +5015,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="30" t="s">
         <v>125</v>
       </c>
@@ -5016,7 +5025,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="31" t="s">
         <v>126</v>
       </c>
@@ -5026,7 +5035,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="31" t="s">
         <v>127</v>
       </c>
@@ -5036,7 +5045,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="31" t="s">
         <v>128</v>
       </c>
@@ -5046,7 +5055,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="31" t="s">
         <v>129</v>
       </c>
@@ -5056,7 +5065,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="31" t="s">
         <v>130</v>
       </c>
@@ -5066,7 +5075,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="31" t="s">
         <v>131</v>
       </c>
@@ -5076,7 +5085,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>132</v>
       </c>
@@ -5092,6 +5101,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="D29:D30"/>
@@ -5108,11 +5122,6 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5123,10 +5132,10 @@
   <dimension ref="A1:CD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
@@ -5212,7 +5221,7 @@
     <col min="82" max="82" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82">
       <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82">
       <c r="A2" s="49" t="s">
         <v>135</v>
       </c>
@@ -5708,7 +5717,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82">
       <c r="A3" s="49" t="s">
         <v>135</v>
       </c>
@@ -5956,7 +5965,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82">
       <c r="A4" s="49" t="s">
         <v>135</v>
       </c>
@@ -6204,7 +6213,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82">
       <c r="A5" s="49" t="s">
         <v>135</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82">
       <c r="A6" s="49" t="s">
         <v>135</v>
       </c>
@@ -6462,7 +6471,7 @@
       <c r="C6" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="100" t="s">
         <v>180</v>
       </c>
       <c r="E6" s="49" t="s">
@@ -6700,7 +6709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82">
       <c r="A7" s="49" t="s">
         <v>135</v>
       </c>
@@ -6710,7 +6719,7 @@
       <c r="C7" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="100" t="s">
         <v>180</v>
       </c>
       <c r="E7" s="49" t="s">
@@ -6948,7 +6957,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82">
       <c r="A8" s="49" t="s">
         <v>135</v>
       </c>
@@ -6958,7 +6967,7 @@
       <c r="C8" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="100" t="s">
         <v>180</v>
       </c>
       <c r="E8" s="49" t="s">
@@ -7196,7 +7205,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82">
       <c r="A9" s="49" t="s">
         <v>135</v>
       </c>
@@ -7206,7 +7215,7 @@
       <c r="C9" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="100" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="49" t="s">
@@ -7444,7 +7453,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82">
       <c r="A10" s="49" t="s">
         <v>135</v>
       </c>
@@ -7454,7 +7463,7 @@
       <c r="C10" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="100" t="s">
         <v>180</v>
       </c>
       <c r="E10" s="49" t="s">
@@ -7692,7 +7701,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82">
       <c r="A11" s="49" t="s">
         <v>135</v>
       </c>
@@ -7702,7 +7711,7 @@
       <c r="C11" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="100" t="s">
         <v>180</v>
       </c>
       <c r="E11" s="49" t="s">
@@ -7940,7 +7949,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82">
       <c r="A12" s="49" t="s">
         <v>135</v>
       </c>
@@ -8188,7 +8197,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82">
       <c r="A13" s="49" t="s">
         <v>135</v>
       </c>
@@ -8436,7 +8445,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82">
       <c r="A14" s="49" t="s">
         <v>135</v>
       </c>
@@ -8684,7 +8693,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82">
       <c r="A15" s="49" t="s">
         <v>135</v>
       </c>
@@ -8932,7 +8941,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82">
       <c r="A16" s="49" t="s">
         <v>135</v>
       </c>
@@ -9180,7 +9189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82">
       <c r="A17" s="49" t="s">
         <v>135</v>
       </c>
@@ -9428,7 +9437,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82">
       <c r="A18" s="49" t="s">
         <v>135</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82">
       <c r="A19" s="49" t="s">
         <v>135</v>
       </c>
@@ -9924,7 +9933,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82">
       <c r="A20" s="49" t="s">
         <v>135</v>
       </c>
@@ -10172,7 +10181,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82">
       <c r="A21" s="49" t="s">
         <v>135</v>
       </c>
@@ -10420,7 +10429,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82">
       <c r="A22" s="49" t="s">
         <v>135</v>
       </c>
@@ -10668,7 +10677,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82">
       <c r="A23" s="49" t="s">
         <v>135</v>
       </c>
@@ -10916,7 +10925,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82">
       <c r="A24" s="49" t="s">
         <v>135</v>
       </c>
@@ -11164,7 +11173,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82">
       <c r="A25" s="49" t="s">
         <v>135</v>
       </c>
@@ -11412,7 +11421,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82">
       <c r="A26" s="49" t="s">
         <v>135</v>
       </c>
@@ -11660,7 +11669,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82">
       <c r="A27" s="49" t="s">
         <v>135</v>
       </c>
@@ -11908,7 +11917,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82">
       <c r="A28" s="49" t="s">
         <v>135</v>
       </c>
@@ -12156,7 +12165,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82">
       <c r="A29" s="49" t="s">
         <v>135</v>
       </c>
@@ -12404,7 +12413,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82">
       <c r="A30" s="49" t="s">
         <v>135</v>
       </c>
@@ -12652,7 +12661,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82">
       <c r="A31" s="49" t="s">
         <v>135</v>
       </c>
@@ -12900,7 +12909,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82">
       <c r="A32" s="49" t="s">
         <v>135</v>
       </c>
@@ -13148,7 +13157,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:82">
       <c r="A33" s="49" t="s">
         <v>135</v>
       </c>
@@ -13396,7 +13405,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:82">
       <c r="A34" s="49" t="s">
         <v>135</v>
       </c>
@@ -13644,7 +13653,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82">
       <c r="A35" s="49" t="s">
         <v>135</v>
       </c>
@@ -13892,7 +13901,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:82">
       <c r="A36" s="49" t="s">
         <v>135</v>
       </c>
@@ -14140,7 +14149,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:82">
       <c r="A37" s="49" t="s">
         <v>135</v>
       </c>
@@ -14388,7 +14397,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:82">
       <c r="A38" s="49" t="s">
         <v>135</v>
       </c>
@@ -14636,7 +14645,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:82">
       <c r="A39" s="49" t="s">
         <v>135</v>
       </c>
@@ -14884,7 +14893,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:82">
       <c r="A40" s="49" t="s">
         <v>135</v>
       </c>
@@ -15132,7 +15141,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:82">
       <c r="A41" s="49" t="s">
         <v>135</v>
       </c>
@@ -15380,7 +15389,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:82">
       <c r="A42" s="49" t="s">
         <v>135</v>
       </c>
@@ -15628,7 +15637,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:82">
       <c r="A43" s="49" t="s">
         <v>135</v>
       </c>
@@ -15876,7 +15885,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:82">
       <c r="A44" s="49" t="s">
         <v>135</v>
       </c>
@@ -16124,7 +16133,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:82">
       <c r="A45" s="49" t="s">
         <v>135</v>
       </c>
@@ -16372,7 +16381,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:82">
       <c r="A46" s="49" t="s">
         <v>135</v>
       </c>
@@ -16620,7 +16629,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:82">
       <c r="A47" s="49" t="s">
         <v>135</v>
       </c>
@@ -16868,7 +16877,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:82">
       <c r="A48" s="49" t="s">
         <v>135</v>
       </c>
@@ -17116,7 +17125,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82">
       <c r="A49" s="49" t="s">
         <v>135</v>
       </c>
@@ -17364,7 +17373,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:82">
       <c r="A50" s="49" t="s">
         <v>135</v>
       </c>
@@ -17612,7 +17621,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:82">
       <c r="A51" s="49" t="s">
         <v>135</v>
       </c>
@@ -17860,7 +17869,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82">
       <c r="A52" s="49" t="s">
         <v>135</v>
       </c>
@@ -18108,7 +18117,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:82">
       <c r="A53" s="49" t="s">
         <v>135</v>
       </c>
@@ -18356,7 +18365,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:82">
       <c r="A54" s="49" t="s">
         <v>135</v>
       </c>
@@ -18604,7 +18613,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82">
       <c r="A55" s="49" t="s">
         <v>135</v>
       </c>
@@ -18852,7 +18861,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:82">
       <c r="A56" s="49" t="s">
         <v>135</v>
       </c>
@@ -19100,7 +19109,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:82">
       <c r="A57" s="49" t="s">
         <v>135</v>
       </c>
@@ -19348,7 +19357,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82">
       <c r="A58" s="49" t="s">
         <v>135</v>
       </c>
@@ -19596,7 +19605,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:82">
       <c r="A59" s="49" t="s">
         <v>135</v>
       </c>
@@ -19844,7 +19853,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:82">
       <c r="A60" s="49" t="s">
         <v>135</v>
       </c>
@@ -20092,7 +20101,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82">
       <c r="A61" s="49" t="s">
         <v>135</v>
       </c>
@@ -20340,7 +20349,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:82">
       <c r="A62" s="49" t="s">
         <v>135</v>
       </c>
@@ -20588,7 +20597,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:82">
       <c r="A63" s="49" t="s">
         <v>135</v>
       </c>
@@ -20836,7 +20845,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82">
       <c r="A64" s="49" t="s">
         <v>135</v>
       </c>
@@ -21084,7 +21093,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:82">
       <c r="A65" s="49" t="s">
         <v>135</v>
       </c>
@@ -21332,7 +21341,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:82">
       <c r="A66" s="49" t="s">
         <v>135</v>
       </c>
@@ -21580,7 +21589,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:82">
       <c r="A67" s="49" t="s">
         <v>135</v>
       </c>
@@ -21828,7 +21837,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:82">
       <c r="A68" s="49" t="s">
         <v>135</v>
       </c>
@@ -22076,7 +22085,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:82">
       <c r="A69" s="49" t="s">
         <v>135</v>
       </c>
@@ -22324,7 +22333,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:82">
       <c r="A70" s="49" t="s">
         <v>135</v>
       </c>
@@ -22572,7 +22581,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:82">
       <c r="A71" s="49" t="s">
         <v>135</v>
       </c>
@@ -22820,7 +22829,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:82">
       <c r="A72" s="49" t="s">
         <v>135</v>
       </c>
@@ -23068,7 +23077,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:82">
       <c r="A73" s="49" t="s">
         <v>135</v>
       </c>
@@ -23316,7 +23325,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:82">
       <c r="A74" s="49" t="s">
         <v>135</v>
       </c>
@@ -23564,7 +23573,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:82">
       <c r="A75" s="49" t="s">
         <v>135</v>
       </c>
@@ -23812,7 +23821,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:82">
       <c r="A76" s="49" t="s">
         <v>135</v>
       </c>
@@ -24060,7 +24069,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:82">
       <c r="A77" s="49" t="s">
         <v>135</v>
       </c>
@@ -24308,7 +24317,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:82">
       <c r="A78" s="49" t="s">
         <v>135</v>
       </c>
@@ -24556,7 +24565,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:82">
       <c r="A79" s="49" t="s">
         <v>135</v>
       </c>
@@ -24804,7 +24813,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:82">
       <c r="A80" s="49" t="s">
         <v>135</v>
       </c>
@@ -25052,7 +25061,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:82">
       <c r="A81" s="49" t="s">
         <v>135</v>
       </c>
@@ -25300,7 +25309,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:82">
       <c r="A82" s="49" t="s">
         <v>135</v>
       </c>
@@ -25548,7 +25557,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:82">
       <c r="A83" s="49" t="s">
         <v>135</v>
       </c>
@@ -25796,7 +25805,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:82">
       <c r="A84" s="49" t="s">
         <v>135</v>
       </c>
@@ -26044,7 +26053,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:82">
       <c r="A85" s="49" t="s">
         <v>135</v>
       </c>
@@ -26292,7 +26301,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:82">
       <c r="A86" s="49" t="s">
         <v>135</v>
       </c>
@@ -26540,7 +26549,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:82">
       <c r="A87" s="49" t="s">
         <v>135</v>
       </c>
@@ -26788,7 +26797,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="88" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:82">
       <c r="A88" s="49" t="s">
         <v>135</v>
       </c>
@@ -27036,7 +27045,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="89" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:82">
       <c r="A89" s="49" t="s">
         <v>135</v>
       </c>
@@ -27284,7 +27293,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="90" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:82">
       <c r="A90" s="49" t="s">
         <v>135</v>
       </c>
@@ -27532,7 +27541,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:82">
       <c r="A91" s="49" t="s">
         <v>135</v>
       </c>
@@ -27780,7 +27789,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:82">
       <c r="A92" s="49" t="s">
         <v>135</v>
       </c>
@@ -28028,7 +28037,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="93" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:82">
       <c r="A93" s="49" t="s">
         <v>135</v>
       </c>
@@ -28276,7 +28285,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="94" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:82">
       <c r="A94" s="49" t="s">
         <v>135</v>
       </c>
@@ -28524,7 +28533,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="95" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:82">
       <c r="A95" s="49" t="s">
         <v>135</v>
       </c>
@@ -28772,7 +28781,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:82">
       <c r="A96" s="49" t="s">
         <v>135</v>
       </c>
@@ -29020,7 +29029,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="97" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:82">
       <c r="A97" s="49" t="s">
         <v>135</v>
       </c>
@@ -29268,7 +29277,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:82">
       <c r="A98" s="49" t="s">
         <v>135</v>
       </c>
@@ -29516,7 +29525,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:82">
       <c r="Q99" s="50"/>
       <c r="X99" s="50"/>
       <c r="AE99" s="50"/>
@@ -29608,7 +29617,7 @@
       <selection activeCell="CX5" sqref="CX5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
@@ -29713,7 +29722,7 @@
     <col min="102" max="102" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -29727,7 +29736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -29747,7 +29756,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102">
       <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
@@ -29761,7 +29770,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" ht="30">
       <c r="A4" s="44" t="s">
         <v>57</v>
       </c>
@@ -29778,7 +29787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" ht="15.75">
       <c r="A5" s="45" t="s">
         <v>946</v>
       </c>
@@ -29870,37 +29879,37 @@
         <v>970</v>
       </c>
       <c r="AE5" s="36" t="s">
-        <v>180</v>
+        <v>971</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AG5" s="36" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AH5" s="36" t="s">
         <v>495</v>
       </c>
       <c r="AI5" s="36" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AJ5" s="36" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AK5" s="36" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AL5" s="36" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AM5" s="36" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AN5" s="36" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AO5" s="36" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AP5" s="36" t="s">
         <v>522</v>
@@ -29909,52 +29918,52 @@
         <v>516</v>
       </c>
       <c r="AR5" s="36" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AS5" s="36" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AT5" s="36" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AU5" s="36" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AV5" s="36" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AW5" s="36" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AX5" s="36" t="s">
         <v>450</v>
       </c>
       <c r="AY5" s="36" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AZ5" s="36" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="BA5" s="36" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="BB5" s="36" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="BC5" s="36" t="s">
         <v>567</v>
       </c>
       <c r="BD5" s="36" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="BE5" s="36" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="BF5" s="36" t="s">
         <v>246</v>
       </c>
       <c r="BG5" s="36" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="BH5" s="36" t="s">
         <v>966</v>
@@ -29963,73 +29972,73 @@
         <v>963</v>
       </c>
       <c r="BJ5" s="40" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="BK5" s="40" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="BL5" s="40" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="BM5" s="40" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="BN5" s="40" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="BO5" s="40" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="BP5" s="40" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="BQ5" s="40" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="BR5" s="40" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="BS5" s="40" t="s">
         <v>554</v>
       </c>
       <c r="BT5" s="40" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="BU5" s="40" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="BV5" s="40" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="BW5" s="40" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="BX5" s="40" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="BY5" s="40" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="BZ5" s="40" t="s">
         <v>561</v>
       </c>
       <c r="CA5" s="40" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="CB5" s="36" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="CC5" s="36" t="s">
         <v>963</v>
       </c>
       <c r="CD5" s="36" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="CE5" s="36" t="s">
         <v>164</v>
       </c>
       <c r="CF5" s="36" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="CG5" s="36" t="s">
         <v>966</v>
@@ -30044,57 +30053,57 @@
         <v>567</v>
       </c>
       <c r="CK5" s="36" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="CL5" s="36" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="CM5" s="41" t="s">
         <v>333</v>
       </c>
       <c r="CN5" s="41" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="CO5" s="41" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="CP5" s="41" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="CQ5" s="41" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="CR5" s="41" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="CS5" s="41" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="CT5" s="41" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="CU5" s="41" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="CV5" s="42" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="CW5" t="s">
         <v>594</v>
       </c>
       <c r="CX5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>144</v>
